--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3369594.461813433</v>
+        <v>3365457.304563279</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>360.1823021116679</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>185.6930507761473</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>64.50612826256146</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>76.92035246272637</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>216.1125904213485</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>209.440022942895</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>186.1075578061197</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>234.1055905923163</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>66.75075502870129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>150.593776684576</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>102.1557845699818</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>64.91921363453658</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>139.7072979240953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>10.74993283584321</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>96.02642072444128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>40.96105405076494</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>31.83025205764035</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>18.50276072357073</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>92.8380285705618</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062054</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>199.9811704213157</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.34531439065386</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U37" t="n">
-        <v>255.4454628329759</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>35.02467705292099</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>175.0948681033056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.408064079030886</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>784.9973385935637</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C2" t="n">
-        <v>784.9973385935637</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D2" t="n">
-        <v>426.7316399868131</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>426.7316399868131</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2250.071382768901</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1996.49032203308</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1665.427434689509</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1312.658779419395</v>
       </c>
       <c r="X2" t="n">
-        <v>1171.597178657685</v>
+        <v>1312.658779419395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1171.597178657685</v>
+        <v>1312.658779419395</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>312.4344762351457</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666174</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258375</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.2468199959893</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>729.3106370680824</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>579.1939976557467</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>431.2809040733536</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>284.3909565754432</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>116.4044918837218</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>116.4044918837218</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4527,13 +4527,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>723.4883455371869</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="C5" t="n">
-        <v>354.5258285967752</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="D5" t="n">
-        <v>354.5258285967752</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>329.1760144623117</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4564,7 +4564,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.22751757712</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1110.088185601309</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
@@ -4655,16 +4655,16 @@
         <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671838</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1195.040196257711</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C8" t="n">
-        <v>826.0776793172992</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172992</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,16 +4801,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.530799662409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1649.065041401329</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1581.640036321833</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,7 +4871,7 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2349.761373717038</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.1299527650191</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C10" t="n">
-        <v>305.0150268210029</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>305.0150268210029</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387889</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>859.5709967387889</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>859.5709967387889</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y10" t="n">
-        <v>638.7784175952588</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>197.0043242297717</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612593</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770323</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>634.3345878491255</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367897</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.0218491516696</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5494,10 +5494,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261136</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>94.56320294380271</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>244.2098454714574</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>244.2098454714574</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3301.825327801252</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.889144873345</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2982.77250546101</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2834.859411878616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2687.969464380706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2520.773365095586</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2379.061533937784</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673039</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3932.255922673039</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3704.266371775022</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3483.473792631492</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>784.5811134804959</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C25" t="n">
-        <v>615.644930552589</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D25" t="n">
-        <v>465.5282911402533</v>
+        <v>415.5933575433592</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>267.680263960966</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>267.680263960966</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,22 +6238,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>878.3568999154069</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>709.4207169875</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>559.3040775751642</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>411.3909839927711</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2244.961901336507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1955.886674680705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1701.202186474818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1411.785016437858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1183.79546553984</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.0028863963103</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6791,10 +6791,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7016,28 +7016,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1902.290194822295</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.605706616408</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1358.188536579448</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1130.19898568143</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1130.19898568143</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>417.7969033733013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>270.906955875391</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>270.906955875391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>129.195124717589</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7727,19 +7727,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>14.25823202432758</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>54.95314511566477</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566511</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>294.834493518473</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>98.24448441976895</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-4.321857195429865e-13</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>43.26526345294945</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>221.2652607547076</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>207.8347205162516</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.22040037418655</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.3047822678006</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>133.6938862346285</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>268.0202376130202</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>52.58301945236944</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>17.42427990597261</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.2393389614409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U37" t="n">
-        <v>30.73901155626828</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>46.24115926564454</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>50.61478728573158</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>211.1765892730639</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>712335.1449660738</v>
+        <v>712335.1449660739</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693393.937316653</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>693393.9373166532</v>
+        <v>693393.9373166531</v>
       </c>
     </row>
     <row r="9">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778542</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778545</v>
@@ -26322,40 +26322,40 @@
         <v>738937.5928778545</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210059</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="L2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="O2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
-      </c>
-      <c r="C4" t="n">
-        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731925</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603069.9633997735</v>
+        <v>-603069.9633997737</v>
       </c>
       <c r="C6" t="n">
-        <v>511681.820176146</v>
+        <v>511681.8201761458</v>
       </c>
       <c r="D6" t="n">
         <v>511681.8201761462</v>
       </c>
       <c r="E6" t="n">
-        <v>109706.6558458202</v>
+        <v>109359.276591463</v>
       </c>
       <c r="F6" t="n">
-        <v>617192.0974703664</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="G6" t="n">
-        <v>617192.097470366</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="H6" t="n">
-        <v>617192.0974703666</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="I6" t="n">
-        <v>617192.0974703665</v>
+        <v>616844.7182160092</v>
       </c>
       <c r="J6" t="n">
-        <v>449586.9196603841</v>
+        <v>449239.5404060267</v>
       </c>
       <c r="K6" t="n">
-        <v>617192.0974703669</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="L6" t="n">
-        <v>617192.0974703664</v>
+        <v>616844.7182160097</v>
       </c>
       <c r="M6" t="n">
-        <v>484584.8037414399</v>
+        <v>484237.4244870823</v>
       </c>
       <c r="N6" t="n">
-        <v>617192.0974703666</v>
+        <v>616844.7182160094</v>
       </c>
       <c r="O6" t="n">
-        <v>617192.0974703663</v>
+        <v>616844.7182160093</v>
       </c>
       <c r="P6" t="n">
-        <v>617192.0974703667</v>
+        <v>616844.7182160094</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26792,31 +26792,31 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>46.69374363004351</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.9651342040865</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>40.2904669413391</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>141.6643008893684</v>
       </c>
     </row>
     <row r="5">
@@ -27618,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>165.8177796509133</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>202.107679830059</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>100.4154405304713</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>131.1673011786912</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>319.4871836273523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>16.65304441405181</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>537.6437863443696</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
@@ -32086,22 +32086,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>689.7436082887205</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>100.2764607028594</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>250.3097721075164</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>697.06562727909</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>675.4898072958217</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932249</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34210,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>200.8457282678124</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>421.8844773977053</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35032,7 +35032,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391975</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>592.5148541563232</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35266,16 +35266,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>214.7252067506235</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
         <v>632.079992146269</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0475418999251</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,22 +35734,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>547.6095743667022</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>73.1808046631526</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>554.9315933570717</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>533.3557733738033</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098916</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3365457.304563279</v>
+        <v>3367217.834866066</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>21.12998984935932</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>185.6930507761473</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>66.40055121331426</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.92035246272637</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>209.440022942895</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>183.1940502653464</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>234.1055905923163</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>196.699784115679</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667399</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.5109739231593</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>64.91921363453658</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>164.9367233701398</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.74993283584321</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>31.83025205764035</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826193</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>926.0589393552737</v>
+        <v>1238.326884986529</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>869.3643680461169</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>869.3643680461169</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>483.5761154478726</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>72.59021065826505</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2250.071382768901</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1996.49032203308</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1665.427434689509</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1312.658779419395</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1312.658779419395</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y2" t="n">
-        <v>1312.658779419395</v>
+        <v>1624.92672505065</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143496</v>
+        <v>527.2645251530223</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4527,13 +4527,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037536</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.028950037536</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.1619192519192</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="C5" t="n">
-        <v>740.1619192519192</v>
+        <v>1136.221880202098</v>
       </c>
       <c r="D5" t="n">
-        <v>740.1619192519192</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="E5" t="n">
-        <v>740.1619192519192</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F5" t="n">
-        <v>329.1760144623117</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4600,19 +4600,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2252.595625709104</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2252.595625709104</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577121</v>
+        <v>1899.82697043899</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.761759316041</v>
+        <v>1526.36121217791</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.761759316041</v>
+        <v>1136.221880202098</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228.89447953245</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.89447953245</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,7 +4871,7 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.578639884741</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2349.761373717038</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>311.7972275475269</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>163.8841339651337</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4962,25 +4962,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354872</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374698</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939397</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5023,67 +5023,67 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836018</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556949</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>415.5933575433592</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>267.680263960966</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>267.680263960966</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138415</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,40 +6220,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6408,28 +6408,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>985.5125840134625</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6724,25 +6724,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6837,25 +6837,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,13 +6955,13 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7365,10 +7365,10 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
         <v>1202.091371290588</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>105.1672460959155</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.24448441976895</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.26924431238921e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.2652607547076</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>207.8347205162516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124958</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>133.6938862346285</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>68.52575990662484</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194177</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>712335.1449660738</v>
+        <v>712335.1449660739</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>712335.1449660739</v>
+        <v>712335.1449660738</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693393.9373166531</v>
+        <v>693393.937316653</v>
       </c>
     </row>
     <row r="6">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778542</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210054</v>
@@ -26334,22 +26334,22 @@
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="O2" t="n">
         <v>726431.9397210053</v>
@@ -26368,13 +26368,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
-      <c r="D4" t="n">
-        <v>134318.0002618638</v>
-      </c>
       <c r="E4" t="n">
-        <v>8117.312426731925</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
         <v>8117.312426731974</v>
@@ -26435,10 +26435,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26450,7 +26450,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-603069.9633997737</v>
+        <v>-603069.9633997735</v>
       </c>
       <c r="C6" t="n">
-        <v>511681.8201761458</v>
+        <v>511681.8201761462</v>
       </c>
       <c r="D6" t="n">
-        <v>511681.8201761462</v>
+        <v>511681.820176146</v>
       </c>
       <c r="E6" t="n">
-        <v>109359.276591463</v>
+        <v>109671.9179203851</v>
       </c>
       <c r="F6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="G6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449307</v>
       </c>
       <c r="H6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="I6" t="n">
-        <v>616844.7182160092</v>
+        <v>617157.3595449303</v>
       </c>
       <c r="J6" t="n">
-        <v>449239.5404060267</v>
+        <v>449552.1817349481</v>
       </c>
       <c r="K6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="L6" t="n">
-        <v>616844.7182160097</v>
+        <v>617157.3595449305</v>
       </c>
       <c r="M6" t="n">
-        <v>484237.4244870823</v>
+        <v>484550.0658160036</v>
       </c>
       <c r="N6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449309</v>
       </c>
       <c r="O6" t="n">
-        <v>616844.7182160093</v>
+        <v>617157.3595449306</v>
       </c>
       <c r="P6" t="n">
-        <v>616844.7182160094</v>
+        <v>617157.3595449309</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26798,31 +26798,31 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>390.4177129235946</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>20.9651342040865</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>80.85095794181461</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.6643008893684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>202.107679830059</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>67.85119986311557</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>131.1673011786912</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>173.03131656279</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188793</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.91007409977192</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,7 +28067,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,16 +32548,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P21" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33204,7 +33204,7 @@
         <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043726</v>
@@ -33259,31 +33259,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>454.5606621218848</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>453.7122424932249</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>291.7547423394003</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34798,7 +34798,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>24.58388860977091</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391975</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>214.7252067506235</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36129,7 +36129,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P21" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>316.7192231475258</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>322.3705304098916</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
